--- a/00-Documentacion/Seguimiento.xlsx
+++ b/00-Documentacion/Seguimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ricardo Lozada - Proyectos\Migración\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493AC7C2-A1F5-469C-8635-4001D5552122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B78BE7-BD6B-4172-AE51-B23ADF805733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
@@ -32,78 +32,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t xml:space="preserve">Reporte </t>
   </si>
   <si>
-    <t>Control Digitalizacion3</t>
-  </si>
-  <si>
-    <t>LTL Pendientes</t>
-  </si>
-  <si>
-    <t>Facturas Pendientes en cedis ori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fusion Pendientes CD LTL y Picking </t>
-  </si>
-  <si>
-    <t>CD y Picking Pendientes</t>
-  </si>
-  <si>
     <t>Lista de citas</t>
   </si>
   <si>
     <t>Porteos TLN</t>
   </si>
   <si>
-    <t xml:space="preserve">DAF Fondo Fijo Empresa 29 MXN </t>
-  </si>
-  <si>
-    <t>Envios Logis-Fuji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logis GSK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entregas Logis-Fuji </t>
-  </si>
-  <si>
-    <t>Expediente aduanal</t>
-  </si>
-  <si>
     <t>Anexo 24 Integration Point</t>
   </si>
   <si>
-    <t>Interfaces</t>
-  </si>
-  <si>
-    <t>Interfaces SEG Automotive</t>
-  </si>
-  <si>
-    <t>Archivos de validacion y Listado XLS</t>
-  </si>
-  <si>
     <t>Transmision COVES/EDOCs</t>
   </si>
   <si>
-    <t>Tiempos de despacho (Customs Clearance Times)</t>
-  </si>
-  <si>
-    <t>DAF empresa 29 mxn – de Facturación</t>
-  </si>
-  <si>
-    <t>DAF fondo fijo empresa 29 mxn – de Facturación</t>
-  </si>
-  <si>
     <t>Backlog aduana – COEX</t>
-  </si>
-  <si>
-    <t>Indices de calidad - COEX</t>
-  </si>
-  <si>
-    <t>Folios Expedientes Marelli</t>
   </si>
   <si>
     <t>COMMAND</t>
@@ -122,9 +68,6 @@
     <t>COEX</t>
   </si>
   <si>
-    <t>14,16</t>
-  </si>
-  <si>
     <t>DISTRIBUCION</t>
   </si>
   <si>
@@ -167,9 +110,6 @@
     <t>anx24_int_point</t>
   </si>
   <si>
-    <t>archivos_validacion, archivos_val_xls</t>
-  </si>
-  <si>
     <t>transmision_edocs_bosch</t>
   </si>
   <si>
@@ -179,9 +119,6 @@
     <t>back_aduana</t>
   </si>
   <si>
-    <t>ind_cal_cli, indice_cal_ad</t>
-  </si>
-  <si>
     <t>pedim_pdf_magneti</t>
   </si>
   <si>
@@ -207,6 +144,120 @@
   </si>
   <si>
     <t>Ftp,sftp,timbrado,zip, genera pdf,xml, correo</t>
+  </si>
+  <si>
+    <t>archivos_validacion</t>
+  </si>
+  <si>
+    <t>Archivos de validacion</t>
+  </si>
+  <si>
+    <t>archivos_val_xls</t>
+  </si>
+  <si>
+    <t>Expediente Aduanal DART por FTP</t>
+  </si>
+  <si>
+    <t>ftp_digit_dart</t>
+  </si>
+  <si>
+    <t>Evolucion Clientes trading</t>
+  </si>
+  <si>
+    <t>trading_evol_clientes</t>
+  </si>
+  <si>
+    <t>cp_carga_unidades</t>
+  </si>
+  <si>
+    <t>Pesos y volumenes Porteos</t>
+  </si>
+  <si>
+    <t>ind_cal_cli</t>
+  </si>
+  <si>
+    <t>indice_cal_ad</t>
+  </si>
+  <si>
+    <t>Indice Calidad Cliente (sin detalle errores)</t>
+  </si>
+  <si>
+    <t>Indice de calidad por aduana (detalle grupo cotiz.</t>
+  </si>
+  <si>
+    <t>KPI Trading</t>
+  </si>
+  <si>
+    <t>trading_kpi</t>
+  </si>
+  <si>
+    <t>Carga archivo web</t>
+  </si>
+  <si>
+    <t>carga_web</t>
+  </si>
+  <si>
+    <t>Carga LTL Urrea</t>
+  </si>
+  <si>
+    <t>carga_ltl_urrea</t>
+  </si>
+  <si>
+    <t>Carga LTL Helvex CP</t>
+  </si>
+  <si>
+    <t>carga_ltl_helvex_cp</t>
+  </si>
+  <si>
+    <t>Carga LTL Austromex CP</t>
+  </si>
+  <si>
+    <t>carga_ltl_austromex_cp</t>
+  </si>
+  <si>
+    <t>Control digitalizacion3</t>
+  </si>
+  <si>
+    <t>LTL Pendientes (facturacion)</t>
+  </si>
+  <si>
+    <t>Facturas pendientes en cedis (ori)</t>
+  </si>
+  <si>
+    <t>Fusion Pendientes CD, LTL y Picking</t>
+  </si>
+  <si>
+    <t>CD Pendientes (facturacion)</t>
+  </si>
+  <si>
+    <t>Pedidos web tracking</t>
+  </si>
+  <si>
+    <t>GSK Pedimientos</t>
+  </si>
+  <si>
+    <t>Entregas Fuji TXT</t>
+  </si>
+  <si>
+    <t>Expediente Aduanal BOSCH por FTP</t>
+  </si>
+  <si>
+    <t>Bosch Pedimentos3 (Interfaces, Interfaces SEG Automotive)</t>
+  </si>
+  <si>
+    <t>Archivos de validacion SAAI y Listado XLS</t>
+  </si>
+  <si>
+    <t>Customs Clearance Times(Tiempos de despacho)</t>
+  </si>
+  <si>
+    <t>ING - EGR - GAR Pendientes Facturar (DAF empresa 29 mxn – de Facturación)</t>
+  </si>
+  <si>
+    <t>Fondo Fijo (DAF fondo fijo empresa 29 mxn – de Facturación)</t>
+  </si>
+  <si>
+    <t>Expediente Aduanal Magneti Marelli</t>
   </si>
 </sst>
 </file>
@@ -306,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,12 +381,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +393,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,420 +721,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361EBCA0-C102-45D9-BE91-837AD7D26F73}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>175</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>114</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>106</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>183</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>160</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>159</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>337</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>201</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>336</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>221</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>310</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>325</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>205</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>231</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>331</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>323</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>321</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>329</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>330</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>175</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>317</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>196</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>334</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>114</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>106</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>349</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>108</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>149</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>153</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>268</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>183</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>160</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>159</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>337</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>330</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>201</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>336</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>221</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>310</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>347</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>325</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>205</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>205</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>231331</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>323</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>321</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>329</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>330</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>317</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>196</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>334</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>348</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00-Documentacion/Seguimiento.xlsx
+++ b/00-Documentacion/Seguimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ricardo Lozada - Proyectos\Migración\migracion_spooler\00-Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ricardo Lozada - Proyectos\Git\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B78BE7-BD6B-4172-AE51-B23ADF805733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516D320-9857-4417-AADC-891DCD69E597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,14 +394,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,7 +750,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>175</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -769,7 +765,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -784,7 +780,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -801,7 +797,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>183</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -816,7 +812,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>160</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -833,7 +829,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>159</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -848,7 +844,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>337</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -863,7 +859,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -878,7 +874,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>336</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -893,7 +889,7 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>221</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -908,7 +904,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>310</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -925,7 +921,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>325</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -940,7 +936,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>205</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -955,7 +951,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>231</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -970,7 +966,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>331</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -985,7 +981,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>323</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1000,7 +996,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>321</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1015,7 +1011,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>329</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1030,7 +1026,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>330</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1045,7 +1041,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1060,7 +1056,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1075,7 +1071,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>16</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1090,7 +1086,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>317</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1107,7 +1103,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>196</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1122,7 +1118,7 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>334</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1137,7 +1133,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <v>349</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -1152,7 +1148,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="14">
         <v>108</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1167,7 +1163,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="14">
         <v>149</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -1182,7 +1178,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="14">
         <v>153</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1191,13 +1187,13 @@
       <c r="C30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="14">
         <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1206,13 +1202,13 @@
       <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>268</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1227,7 +1223,7 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>347</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1242,7 +1238,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>348</v>
       </c>
       <c r="B34" s="2" t="s">

--- a/00-Documentacion/Seguimiento.xlsx
+++ b/00-Documentacion/Seguimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ricardo Lozada - Proyectos\Git\migracion_spooler\00-Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516D320-9857-4417-AADC-891DCD69E597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DDDB76-DD3E-4FCA-8D3A-8429D5E90D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361EBCA0-C102-45D9-BE91-837AD7D26F73}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/00-Documentacion/Seguimiento.xlsx
+++ b/00-Documentacion/Seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DDDB76-DD3E-4FCA-8D3A-8429D5E90D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD66CF9-60D1-4E02-ACF9-63E6AB3EF0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="82">
   <si>
     <t xml:space="preserve">Reporte </t>
   </si>
@@ -258,6 +258,27 @@
   </si>
   <si>
     <t>Expediente Aduanal Magneti Marelli</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Se encuentra inactivo temporal mente</t>
   </si>
 </sst>
 </file>
@@ -717,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361EBCA0-C102-45D9-BE91-837AD7D26F73}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,9 +751,11 @@
     <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -748,8 +771,20 @@
       <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>175</v>
       </c>
@@ -763,8 +798,18 @@
         <v>11</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>114</v>
       </c>
@@ -778,8 +823,18 @@
         <v>11</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>106</v>
       </c>
@@ -795,8 +850,16 @@
       <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>183</v>
       </c>
@@ -810,8 +873,18 @@
         <v>11</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>160</v>
       </c>
@@ -827,8 +900,18 @@
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>159</v>
       </c>
@@ -842,8 +925,18 @@
         <v>11</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>337</v>
       </c>
@@ -857,8 +950,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>201</v>
       </c>
@@ -872,8 +975,18 @@
         <v>11</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>336</v>
       </c>
@@ -887,8 +1000,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>221</v>
       </c>
@@ -902,8 +1025,18 @@
         <v>11</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>310</v>
       </c>
@@ -919,8 +1052,18 @@
       <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>325</v>
       </c>
@@ -934,8 +1077,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>205</v>
       </c>
@@ -949,8 +1102,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>231</v>
       </c>
@@ -964,8 +1127,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>331</v>
       </c>
@@ -979,8 +1152,18 @@
         <v>10</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>323</v>
       </c>
@@ -994,8 +1177,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>321</v>
       </c>
@@ -1009,8 +1202,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>329</v>
       </c>
@@ -1024,8 +1227,18 @@
         <v>10</v>
       </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>330</v>
       </c>
@@ -1039,8 +1252,18 @@
         <v>10</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -1054,8 +1277,18 @@
         <v>10</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>14</v>
       </c>
@@ -1069,8 +1302,18 @@
         <v>10</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -1084,8 +1327,18 @@
         <v>10</v>
       </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>317</v>
       </c>
@@ -1101,8 +1354,18 @@
       <c r="E24" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>196</v>
       </c>
@@ -1116,8 +1379,20 @@
         <v>10</v>
       </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>334</v>
       </c>
@@ -1131,8 +1406,20 @@
         <v>10</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>349</v>
       </c>
@@ -1146,8 +1433,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>108</v>
       </c>
@@ -1161,8 +1458,18 @@
         <v>11</v>
       </c>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>149</v>
       </c>
@@ -1176,8 +1483,18 @@
         <v>10</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>153</v>
       </c>
@@ -1191,8 +1508,20 @@
         <v>10</v>
       </c>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>102</v>
       </c>
@@ -1206,8 +1535,20 @@
         <v>10</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>268</v>
       </c>
@@ -1221,8 +1562,20 @@
         <v>10</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>347</v>
       </c>
@@ -1236,8 +1589,20 @@
         <v>10</v>
       </c>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>348</v>
       </c>
@@ -1251,6 +1616,18 @@
         <v>10</v>
       </c>
       <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00-Documentacion/Seguimiento.xlsx
+++ b/00-Documentacion/Seguimiento.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{886349C5-A33B-43FB-9191-62C9B97C7D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D31E9E-9273-4433-B758-27998E29FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$989</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3702,7 +3705,7 @@
   <dimension ref="A1:H989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23536,6 +23539,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H989" xr:uid="{361EBCA0-C102-45D9-BE91-837AD7D26F73}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
